--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\2-Confirmed\6-Docker-Kubernetes-Astreet\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1333692-86D4-49FA-9C37-21D22EDBDEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE0EA4-5A0E-444C-A97C-F36A6145CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>centos os</t>
   </si>
@@ -153,6 +155,72 @@
   </si>
   <si>
     <t>Apply Docker to create your image</t>
+  </si>
+  <si>
+    <t>My Computer - VM</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>DNS Server by Docker</t>
+  </si>
+  <si>
+    <t>container1</t>
+  </si>
+  <si>
+    <t>172.17.0.2</t>
+  </si>
+  <si>
+    <t>Container2</t>
+  </si>
+  <si>
+    <t>172.17.0.4</t>
+  </si>
+  <si>
+    <t>172.17.0.5</t>
+  </si>
+  <si>
+    <t>172.17.0.7</t>
+  </si>
+  <si>
+    <t>172.17.0.3</t>
+  </si>
+  <si>
+    <t>Container - alpine1</t>
+  </si>
+  <si>
+    <t>Container1 - alpine2</t>
+  </si>
+  <si>
+    <t>Container - alpine 3</t>
+  </si>
+  <si>
+    <t>Container - alpine4</t>
+  </si>
+  <si>
+    <t>Bridge n/w</t>
+  </si>
+  <si>
+    <t>u50-network</t>
+  </si>
+  <si>
+    <t>mysql database container</t>
+  </si>
+  <si>
+    <t>web application</t>
+  </si>
+  <si>
+    <t>volume - volmysql</t>
+  </si>
+  <si>
+    <t>/etc/mysql/data</t>
+  </si>
+  <si>
+    <t>mapped</t>
+  </si>
+  <si>
+    <t>Docker Machine</t>
   </si>
 </sst>
 </file>
@@ -177,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +294,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -312,11 +392,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -346,6 +481,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,6 +1254,170 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1087244" y="7406268"/>
           <a:ext cx="1407841" cy="1077952"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174287</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572D4772-14B7-B670-F8A5-CF534DB888DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3712723" y="644457"/>
+          <a:ext cx="1325394" cy="93224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>565542</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8175A275-8439-3085-B06B-9782DA6305A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1173521" y="1072191"/>
+          <a:ext cx="3082330" cy="1197596"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595819</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196458</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DF41A4-5D10-708A-5F2C-23C3E3A95139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1203798" y="1155160"/>
+          <a:ext cx="2032554" cy="139714"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1417,8 +1748,8 @@
   </sheetPr>
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A79911-EA1C-403A-9E43-0A91C25E9AB3}">
   <dimension ref="A3:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -1931,4 +2262,362 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9C586A-B2DC-4BC7-A7A3-2120529E13A8}">
+  <dimension ref="D3:K15"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="33"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="35"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="33"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="35"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555AE792-6991-40CF-927A-ABC0A6A4A43E}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="40"/>
+      <c r="F3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="40"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="43"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="40"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="40"/>
+      <c r="F10" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="43"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="40"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\2-Confirmed\6-Docker-Kubernetes-Astreet\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE0EA4-5A0E-444C-A97C-F36A6145CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B592DFF-92F0-4E21-BFE7-D8792317AA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>centos os</t>
   </si>
@@ -221,6 +223,108 @@
   </si>
   <si>
     <t>Docker Machine</t>
+  </si>
+  <si>
+    <t>Public IP: 23.25.2.9</t>
+  </si>
+  <si>
+    <t>Azure Portal</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>23.25.2.9</t>
+  </si>
+  <si>
+    <t>app: web</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>172.1.2.1</t>
+  </si>
+  <si>
+    <t>172.1.2.2</t>
+  </si>
+  <si>
+    <t>172.1.2.3</t>
+  </si>
+  <si>
+    <t>PUBIP: 23.25.2.9</t>
+  </si>
+  <si>
+    <t>PVTIP - 172.1.2.8</t>
+  </si>
+  <si>
+    <t>Python Code- access REST IP via mysvcrest-api</t>
+  </si>
+  <si>
+    <t>Selector: app: web</t>
+  </si>
+  <si>
+    <t>172.1.2.5</t>
+  </si>
+  <si>
+    <t>172.1.2.4</t>
+  </si>
+  <si>
+    <t>172.1.2.6</t>
+  </si>
+  <si>
+    <t>Service: svcdb</t>
+  </si>
+  <si>
+    <t>ClusterIP</t>
+  </si>
+  <si>
+    <t>app: db</t>
+  </si>
+  <si>
+    <t>PVTIP: 172.1.2.11</t>
+  </si>
+  <si>
+    <t>Selector: app: db</t>
+  </si>
+  <si>
+    <t>name: mysvcrest-api</t>
+  </si>
+  <si>
+    <t>wn1</t>
+  </si>
+  <si>
+    <t>wn2</t>
+  </si>
+  <si>
+    <t>wn3</t>
+  </si>
+  <si>
+    <t>Storage Space</t>
+  </si>
+  <si>
+    <t>/mydata - mounting</t>
+  </si>
+  <si>
+    <t>/var/lib/mysql/data</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>volumes</t>
+  </si>
+  <si>
+    <t>mysql client</t>
+  </si>
+  <si>
+    <t>PV</t>
   </si>
 </sst>
 </file>
@@ -245,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +407,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -478,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -490,8 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -501,18 +619,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,6 +1556,721 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1203798" y="1155160"/>
           <a:ext cx="2032554" cy="139714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584488</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AFFDEC-7074-41E7-B0F1-F337054AD7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1863436" y="1070263"/>
+          <a:ext cx="553662" cy="662768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147204</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Smiley Face 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1A516E-184F-4377-9E1F-FC4A2E398C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49530" y="317962"/>
+          <a:ext cx="352598" cy="379787"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>402128</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593148</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5287DBD-8FD8-4FEE-A03F-55598853490B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398318" y="504046"/>
+          <a:ext cx="800620" cy="1013373"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>458932</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489239</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BBE08E-4574-40FA-A79A-53ECD126AEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5335732" y="1733031"/>
+          <a:ext cx="1247602" cy="463954"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>402648</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30307</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A88A1CB-2A4E-4C37-B7DB-E73210BFE007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4056438" y="2208588"/>
+          <a:ext cx="2067964" cy="154824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>178897</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C8CF3E-95FC-46DC-B195-D3EBB71B1165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3026698" y="2511136"/>
+          <a:ext cx="3244389" cy="62692"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473826</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F32109-0B09-4DBE-AB6E-7BDD87876C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5427172" y="2636866"/>
+          <a:ext cx="1146464" cy="86936"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77222</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>580792</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168848</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB62DF6A-9F59-B7C6-60FD-20901D052046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1410722" y="2676293"/>
+          <a:ext cx="1112241" cy="647421"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>683012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590085</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AF33AA-3452-8A04-4C34-B6776680A0AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1291683" y="1844598"/>
+          <a:ext cx="1240573" cy="311304"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFF2D82-3606-F44F-A6E2-EE3C1509F808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="511629" y="1306286"/>
+          <a:ext cx="1453242" cy="772885"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Smiley Face 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1CE026-496A-7E63-F821-009238BB71B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250371" y="1926771"/>
+          <a:ext cx="370115" cy="473529"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6834312E-B69D-3ED8-5576-D6B1004A1AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3619500" y="1121229"/>
+          <a:ext cx="1268186" cy="244928"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367BBBFF-ECCB-09B1-6088-9A3858183992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6662057" y="1175657"/>
+          <a:ext cx="1377043" cy="10886"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2165,7 +3018,7 @@
       <c r="C39" s="10"/>
       <c r="E39" s="8"/>
       <c r="G39" s="17"/>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="57" t="s">
         <v>38</v>
       </c>
       <c r="J39" t="s">
@@ -2179,7 +3032,7 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="57"/>
       <c r="J40" t="s">
         <v>36</v>
       </c>
@@ -2189,7 +3042,7 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="57"/>
       <c r="J41" t="s">
         <v>37</v>
       </c>
@@ -2284,168 +3137,168 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="33"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="30" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="35"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="30" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="33"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="28" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="30" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="35"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2457,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555AE792-6991-40CF-927A-ABC0A6A4A43E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2469,152 +3322,524 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="40"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
+      <c r="G3" s="29"/>
+      <c r="J3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="40"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="38"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="38"/>
+      <c r="F10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="38"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="38"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CD493E-670F-410F-8DD3-4AA9F0226262}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="38"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
       <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="40"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="40"/>
-      <c r="F10" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="43"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="40"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="43"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="38"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="38"/>
+      <c r="C7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="38"/>
+      <c r="C8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
+      <c r="C9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="38"/>
+      <c r="C10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38"/>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="38"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="38"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
+      <c r="K17" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF6911E-FD8D-46C7-BC51-1D2DE27815B4}">
+  <dimension ref="D4:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="64"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\2-Confirmed\6-Docker-Kubernetes-Astreet\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B592DFF-92F0-4E21-BFE7-D8792317AA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C102D96-D3EA-423D-9D48-927D13B30D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>centos os</t>
   </si>
@@ -325,13 +327,162 @@
   </si>
   <si>
     <t>PV</t>
+  </si>
+  <si>
+    <t>Ubuntu Machine</t>
+  </si>
+  <si>
+    <t>install docker</t>
+  </si>
+  <si>
+    <t>sudo apt install docker</t>
+  </si>
+  <si>
+    <t>Packages Registry</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>vim</t>
+  </si>
+  <si>
+    <t>nano</t>
+  </si>
+  <si>
+    <t>Kubernetes Cluster</t>
+  </si>
+  <si>
+    <t>Helm Package registry</t>
+  </si>
+  <si>
+    <t>wordpress</t>
+  </si>
+  <si>
+    <t>helm install ----</t>
+  </si>
+  <si>
+    <t>Install airflow</t>
+  </si>
+  <si>
+    <t>helm add</t>
+  </si>
+  <si>
+    <t>helm install</t>
+  </si>
+  <si>
+    <t>airflow package</t>
+  </si>
+  <si>
+    <t>airflow - where is package</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Node Name</t>
+  </si>
+  <si>
+    <t>Is Tainted</t>
+  </si>
+  <si>
+    <t>Taint Key/Value</t>
+  </si>
+  <si>
+    <t>Taint Type</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NoSchedule</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>POD Name</t>
+  </si>
+  <si>
+    <t>Pod Tolerations</t>
+  </si>
+  <si>
+    <t>example-key=example-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tolerations:
+  - key: "example-key"
+    operator: "Exists"
+    effect: "NoSchedule"</t>
+  </si>
+  <si>
+    <t>Deploy to vmss00000k-1?</t>
+  </si>
+  <si>
+    <t>Deploy to vmss00000l-2?</t>
+  </si>
+  <si>
+    <t>nginx1</t>
+  </si>
+  <si>
+    <t>nginx2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tolerations:
+  - key: "example-key1"
+    operator: "Exists"
+    effect: "NoSchedule"</t>
+  </si>
+  <si>
+    <t>example-key1=example-value</t>
+  </si>
+  <si>
+    <t>PreferNoSchedule</t>
+  </si>
+  <si>
+    <t>nginx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tolerations:
+  - key: "example-key"
+    operator: "Exists"</t>
+  </si>
+  <si>
+    <t>Deploy to vmss00000l-3?</t>
+  </si>
+  <si>
+    <t>nginx4</t>
+  </si>
+  <si>
+    <t>16745426-vmss00000k</t>
+  </si>
+  <si>
+    <t>16745426-vmss00000l</t>
+  </si>
+  <si>
+    <t>16745426-vmss000002</t>
+  </si>
+  <si>
+    <t>16745426-vmss000003</t>
+  </si>
+  <si>
+    <t>Deploy to vmss000003?</t>
+  </si>
+  <si>
+    <t>NoExecute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,8 +499,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +584,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -639,11 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,6 +830,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,6 +2458,453 @@
         <a:xfrm flipV="1">
           <a:off x="6662057" y="1175657"/>
           <a:ext cx="1377043" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167269</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18586</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4518B4C-3EF3-657C-3427-1C3B58754E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384610" y="892098"/>
+          <a:ext cx="459988" cy="506451"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22396</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552915</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5080D02E-CFCD-DCE0-38B0-24B550C1D9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1848408" y="998963"/>
+          <a:ext cx="1139190" cy="150171"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>483220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594732</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBE0CCD-DD74-352D-74CE-8EDDFECADDF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4743915" y="608671"/>
+          <a:ext cx="1937524" cy="274134"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167269</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18586</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Smiley Face 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F3CFA1-3079-4ADC-97A8-5DD188443E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1388420" y="895908"/>
+          <a:ext cx="459988" cy="506451"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22396</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552915</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD31E733-D971-40CF-B237-F98E0300E39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1844598" y="1002773"/>
+          <a:ext cx="1139190" cy="142551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>479410</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562208</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDB1B40-A383-4EDF-826E-51A59333FEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4740105" y="3602820"/>
+          <a:ext cx="1908810" cy="1313009"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41817</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>153330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576147</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A94E314-52AC-03ED-79CC-2DB00B3B3119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4911183" y="4321098"/>
+          <a:ext cx="1751671" cy="938561"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>515744</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580793</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88281</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6E2EEE-D943-E5F9-1064-1CC30149214D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4776439" y="3140927"/>
+          <a:ext cx="1891061" cy="390293"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3018,7 +3652,7 @@
       <c r="C39" s="10"/>
       <c r="E39" s="8"/>
       <c r="G39" s="17"/>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="63" t="s">
         <v>38</v>
       </c>
       <c r="J39" t="s">
@@ -3032,7 +3666,7 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="63"/>
       <c r="J40" t="s">
         <v>36</v>
       </c>
@@ -3042,7 +3676,7 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="63"/>
       <c r="J41" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +4149,7 @@
       <c r="I5" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3525,15 +4159,15 @@
       <c r="E6" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="60"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3543,11 +4177,11 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="52"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3567,7 +4201,7 @@
       <c r="I8" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="59" t="s">
         <v>88</v>
       </c>
       <c r="K8" s="3"/>
@@ -3603,15 +4237,15 @@
       <c r="E10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59" t="s">
+      <c r="G10" s="57"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="60"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3620,22 +4254,22 @@
         <v>78</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="60"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="3"/>
@@ -3647,7 +4281,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="59" t="s">
         <v>89</v>
       </c>
       <c r="K12" s="3"/>
@@ -3675,13 +4309,13 @@
       <c r="E14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="58"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3693,13 +4327,13 @@
       <c r="E15" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="53"/>
-      <c r="J15" s="60"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="18" t="s">
         <v>85</v>
       </c>
@@ -3717,7 +4351,7 @@
       <c r="I16" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="59" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="18" t="s">
@@ -3731,7 +4365,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="60" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="43"/>
@@ -3754,7 +4388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF6911E-FD8D-46C7-BC51-1D2DE27815B4}">
   <dimension ref="D4:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:K11"/>
     </sheetView>
   </sheetViews>
@@ -3784,9 +4418,9 @@
       <c r="K6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D7" s="3"/>
@@ -3797,9 +4431,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
@@ -3808,11 +4442,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
+      <c r="N8" s="62"/>
+      <c r="O8" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="64"/>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="3"/>
@@ -3821,9 +4455,9 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="3"/>
@@ -3832,9 +4466,9 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I11" s="5"/>
@@ -3845,4 +4479,442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBF855E-82FF-4D5A-9FCD-97E7D31B1DE0}">
+  <dimension ref="B3:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="65"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="J4" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="J5" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="J6" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="J7" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="65"/>
+      <c r="K18" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="64"/>
+      <c r="E19" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="J20" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="J21" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="J22" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="J27" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FB05A-DB8A-4BD1-8491-6FDC8B5E0965}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\2-Confirmed\6-Docker-Kubernetes-Astreet\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C102D96-D3EA-423D-9D48-927D13B30D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2906D6E-674F-404C-B6BD-308883E69EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="164">
   <si>
     <t>centos os</t>
   </si>
@@ -476,13 +478,70 @@
   </si>
   <si>
     <t>NoExecute</t>
+  </si>
+  <si>
+    <t>/web server - nginx</t>
+  </si>
+  <si>
+    <t>/app server - tomcat</t>
+  </si>
+  <si>
+    <t>/database server - mysql</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Health Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - via Ping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - via custom rules</t>
+  </si>
+  <si>
+    <t>Worker Node</t>
+  </si>
+  <si>
+    <t>POD - Monitoring</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Replicaset - 3</t>
+  </si>
+  <si>
+    <t>POD - database</t>
+  </si>
+  <si>
+    <t>master: web-0</t>
+  </si>
+  <si>
+    <t>replicate: web-1</t>
+  </si>
+  <si>
+    <t>replicate: web-2</t>
+  </si>
+  <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Reads</t>
+  </si>
+  <si>
+    <t>Pods are created in serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,8 +566,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -812,12 +884,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -828,16 +897,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2259,6 +2335,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134744</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232318</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DCE22F-F18B-11EE-440D-5580FC438954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2076915" y="2202366"/>
+          <a:ext cx="706244" cy="185854"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2905,6 +3034,561 @@
         <a:xfrm flipV="1">
           <a:off x="4776439" y="3140927"/>
           <a:ext cx="1891061" cy="390293"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241391</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206714A3-C683-4871-D0F9-0A2ACDD29DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2324100" y="1153886"/>
+          <a:ext cx="529862" cy="658585"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CA5761-E845-DC78-C5BD-76252DF6CCBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4805771" y="1099185"/>
+          <a:ext cx="462915" cy="713286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53E6906-9CFF-6E24-A83A-913BC32A953A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1003119"/>
+          <a:ext cx="789214" cy="798467"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108A4646-3328-E45B-2345-7C49E2668CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2590800" y="2035629"/>
+          <a:ext cx="2345871" cy="168728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B28E43D-46E8-9C51-BBC8-C50CC38E4201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="2612571"/>
+          <a:ext cx="4299857" cy="119743"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Smiley Face 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BCF8AF-F504-6D34-C502-78B1A6DCB9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="1262743"/>
+          <a:ext cx="598714" cy="636814"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640352</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549729</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031DE8C-BB83-2A8A-0D94-B24428E8FC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1249952" y="544286"/>
+          <a:ext cx="693148" cy="1036864"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520609</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Smiley Face 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43200E5D-6986-B21B-B174-42F15313B54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8638086" y="255815"/>
+          <a:ext cx="591094" cy="636814"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33474</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2983E665-AEF8-CF4B-86CA-F7A49C0906CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7451271" y="533400"/>
+          <a:ext cx="1188720" cy="38917"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>77661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17147</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754EA9E5-C16B-2899-0709-C86770FF95EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5655129" y="796118"/>
+          <a:ext cx="3070589" cy="199925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3366,6 +4050,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A03FBB-536A-4280-B8B5-69CAF6813DC9}">
+  <dimension ref="B3:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="H3" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="71"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="H4" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="71"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="O6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A79911-EA1C-403A-9E43-0A91C25E9AB3}">
   <dimension ref="A3:K49"/>
@@ -3652,7 +4460,7 @@
       <c r="C39" s="10"/>
       <c r="E39" s="8"/>
       <c r="G39" s="17"/>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="72" t="s">
         <v>38</v>
       </c>
       <c r="J39" t="s">
@@ -3666,7 +4474,7 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="I40" s="63"/>
+      <c r="I40" s="72"/>
       <c r="J40" t="s">
         <v>36</v>
       </c>
@@ -3676,7 +4484,7 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="I41" s="63"/>
+      <c r="I41" s="72"/>
       <c r="J41" t="s">
         <v>37</v>
       </c>
@@ -4087,12 +4895,15 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4113,14 +4924,16 @@
       <c r="J2" s="36"/>
       <c r="K2" s="37"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="38"/>
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="38"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="49"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
         <v>66</v>
@@ -4136,125 +4949,131 @@
         <v>67</v>
       </c>
       <c r="B5" s="38"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="H5" s="47"/>
+      <c r="I5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="38"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="54" t="s">
         <v>69</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="38"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="52"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="68" t="s">
+        <v>147</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="57"/>
+      <c r="G7" s="64" t="s">
+        <v>146</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="I7" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="55"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="38"/>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="56" t="s">
         <v>88</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="49" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="54" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="38"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="64" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="3"/>
@@ -4265,66 +5084,72 @@
       <c r="I11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="58"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="54" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="59" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="56" t="s">
         <v>89</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="38"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="52" t="s">
+      <c r="C14" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="54" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="57"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="58"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="38"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="52" t="s">
+      <c r="C15" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="54" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="3"/>
@@ -4332,26 +5157,26 @@
         <v>84</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="38"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="54" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56" t="s">
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="56" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="18" t="s">
@@ -4365,7 +5190,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="43"/>
@@ -4418,9 +5243,9 @@
       <c r="K6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D7" s="3"/>
@@ -4431,9 +5256,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
@@ -4442,11 +5267,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="62"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="3"/>
@@ -4455,9 +5280,9 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="3"/>
@@ -4466,9 +5291,9 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I11" s="5"/>
@@ -4492,222 +5317,222 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J3" s="65"/>
-      <c r="K3" s="65" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="65"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D4" s="64"/>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="F4" s="59"/>
+      <c r="J4" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="J5" s="65" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="J5" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="J6" s="65" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="J6" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="J7" s="65" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="J7" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="65"/>
-      <c r="K18" s="65" t="s">
+      <c r="J18" s="60"/>
+      <c r="K18" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="65"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="64"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="64"/>
+      <c r="F19" s="59"/>
       <c r="H19" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="J20" s="65" t="s">
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="J20" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="J21" s="65" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="J21" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="J22" s="65" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="J22" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="H23" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="J27" s="66" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="J27" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="H28" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4719,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FB05A-DB8A-4BD1-8491-6FDC8B5E0965}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4734,20 +5559,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4821,16 +5646,16 @@
       <c r="B7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="62" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4841,13 +5666,13 @@
       <c r="B8" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="63" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4858,13 +5683,13 @@
       <c r="B9" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="63" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4875,13 +5700,13 @@
       <c r="B10" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="63" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4892,13 +5717,13 @@
       <c r="B11" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="63" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4907,12 +5732,214 @@
         <v>138</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" t="s">
         <v>120</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98B5E7-1630-4BAE-A38F-E926AF7BE37B}">
+  <dimension ref="C2:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="38"/>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="38"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="38"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="38"/>
+      <c r="D7" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="G7" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="J7" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="71"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="38"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="38"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="38"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="38"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="38"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="38"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="38"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="38"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="38"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="38"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="38"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\2-Confirmed\6-Docker-Kubernetes-Astreet\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2906D6E-674F-404C-B6BD-308883E69EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7EC2A7-7DFF-4913-ACE9-472F8430C7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{087D133F-1531-4F37-9D20-0245631E3E91}"/>
   </bookViews>
@@ -4055,7 +4055,7 @@
   <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
